--- a/附件/result2.xlsx
+++ b/附件/result2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-23-3 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF92F2-BB74-42CA-B380-B52D47D03171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B5974-0349-E24E-9EB4-1BEE7E35A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>无人机编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +89,10 @@
   </si>
   <si>
     <t>FY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +100,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +155,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,17 +498,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="10" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,25 +542,112 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="4">
+        <v>176.73</v>
+      </c>
+      <c r="C2" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17798.66</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G2" s="4">
+        <v>17621.900000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1769.09</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4.5427999999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="4">
+        <v>307.7133</v>
+      </c>
+      <c r="C3" s="4">
+        <v>139.97489999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12694.1558</v>
+      </c>
+      <c r="E3" s="4">
+        <v>502.29829999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13056.356</v>
+      </c>
+      <c r="H3" s="4">
+        <v>33.890973219999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1312.3199302200001</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.9936725900000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="4">
+        <v>74.298600759999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>136.38342351</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6826.9614312800004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-58.266790010000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>700</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6868.6713688500004</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90.107129150000006</v>
+      </c>
+      <c r="I4" s="4">
+        <v>693.74223129999996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3.1585391700000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(J2:J4)</f>
+        <v>11.69501176</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
